--- a/Win64/Debug/res/Schedule.xlsx
+++ b/Win64/Debug/res/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\Delphi\Секретарь\Секретарь_v2\Win64\Debug\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAF830E-EEC2-45FC-8BF6-A8B084F21CA0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B5A482-7F06-4E33-B08A-845ABFB383D7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="14340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -922,8 +922,8 @@
   </sheetPr>
   <dimension ref="B1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="6" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
-        <f t="shared" ref="B6:B30" si="0">B5+TIME(0, 30, 0)</f>
+        <f t="shared" ref="B6:B36" si="0">B5+TIME(0, 30, 0)</f>
         <v>0.4166666666666663</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -1684,7 +1684,8 @@
     </row>
     <row r="31" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B31" s="8">
-        <v>0.15347222222222223</v>
+        <f t="shared" si="0"/>
+        <v>0.93750000000000033</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>114</v>
@@ -1706,8 +1707,8 @@
     </row>
     <row r="32" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B32" s="8">
-        <f>B31+TIME(0, 1, 0)</f>
-        <v>0.15416666666666667</v>
+        <f t="shared" si="0"/>
+        <v>0.9583333333333337</v>
       </c>
       <c r="C32" t="s">
         <v>41</v>
@@ -1729,8 +1730,8 @@
     </row>
     <row r="33" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B33" s="8">
-        <f t="shared" ref="B33:B36" si="1">B32+TIME(0, 1, 0)</f>
-        <v>0.15486111111111112</v>
+        <f t="shared" si="0"/>
+        <v>0.97916666666666707</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>137</v>
@@ -1752,8 +1753,8 @@
     </row>
     <row r="34" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B34" s="8">
-        <f t="shared" si="1"/>
-        <v>0.15555555555555556</v>
+        <f t="shared" si="0"/>
+        <v>1.0000000000000004</v>
       </c>
       <c r="C34" t="s">
         <v>137</v>
@@ -1775,8 +1776,8 @@
     </row>
     <row r="35" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B35" s="8">
-        <f t="shared" si="1"/>
-        <v>0.15625</v>
+        <f t="shared" si="0"/>
+        <v>1.0208333333333337</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>3</v>
@@ -1798,8 +1799,8 @@
     </row>
     <row r="36" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B36" s="8">
-        <f t="shared" si="1"/>
-        <v>0.15694444444444444</v>
+        <f t="shared" si="0"/>
+        <v>1.041666666666667</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>18</v>
@@ -1835,7 +1836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>

--- a/Win64/Debug/res/Schedule.xlsx
+++ b/Win64/Debug/res/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\Delphi\Секретарь\Секретарь_v2\Win64\Debug\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B5A482-7F06-4E33-B08A-845ABFB383D7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BC5DCF-BD8F-4DAC-AD8D-D6EE9438C83D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="148">
   <si>
     <t>Распорядок дня</t>
   </si>
@@ -923,7 +923,7 @@
   <dimension ref="B1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:B36"/>
+      <selection activeCell="B29" sqref="B29:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1653,7 +1653,7 @@
         <v>39</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>39</v>
@@ -1679,7 +1679,9 @@
       <c r="G30" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H30" s="7"/>
+      <c r="H30" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -1702,7 +1704,9 @@
       <c r="G31" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H31" s="7"/>
+      <c r="H31" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="I31" s="7"/>
     </row>
     <row r="32" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -1725,7 +1729,9 @@
       <c r="G32" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H32" s="7"/>
+      <c r="H32" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="I32" s="7"/>
     </row>
     <row r="33" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -1748,7 +1754,9 @@
       <c r="G33" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H33" s="7"/>
+      <c r="H33" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="I33" s="7"/>
     </row>
     <row r="34" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -1771,7 +1779,9 @@
       <c r="G34" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H34" s="7"/>
+      <c r="H34" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -1794,7 +1804,9 @@
       <c r="G35" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H35" s="7"/>
+      <c r="H35" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="I35" s="7"/>
     </row>
     <row r="36" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
@@ -1817,7 +1829,9 @@
       <c r="G36" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H36" s="7"/>
+      <c r="H36" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="I36" s="7"/>
     </row>
   </sheetData>

--- a/Win64/Debug/res/Schedule.xlsx
+++ b/Win64/Debug/res/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\Delphi\Секретарь\Секретарь_v2\Win64\Debug\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAF830E-EEC2-45FC-8BF6-A8B084F21CA0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BC5DCF-BD8F-4DAC-AD8D-D6EE9438C83D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="14340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="148">
   <si>
     <t>Распорядок дня</t>
   </si>
@@ -922,8 +922,8 @@
   </sheetPr>
   <dimension ref="B1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="6" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
-        <f t="shared" ref="B6:B30" si="0">B5+TIME(0, 30, 0)</f>
+        <f t="shared" ref="B6:B36" si="0">B5+TIME(0, 30, 0)</f>
         <v>0.4166666666666663</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -1653,7 +1653,7 @@
         <v>39</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>39</v>
@@ -1679,12 +1679,15 @@
       <c r="G30" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H30" s="7"/>
+      <c r="H30" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B31" s="8">
-        <v>0.15347222222222223</v>
+        <f t="shared" si="0"/>
+        <v>0.93750000000000033</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>114</v>
@@ -1701,13 +1704,15 @@
       <c r="G31" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H31" s="7"/>
+      <c r="H31" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="I31" s="7"/>
     </row>
     <row r="32" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B32" s="8">
-        <f>B31+TIME(0, 1, 0)</f>
-        <v>0.15416666666666667</v>
+        <f t="shared" si="0"/>
+        <v>0.9583333333333337</v>
       </c>
       <c r="C32" t="s">
         <v>41</v>
@@ -1724,13 +1729,15 @@
       <c r="G32" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H32" s="7"/>
+      <c r="H32" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="I32" s="7"/>
     </row>
     <row r="33" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B33" s="8">
-        <f t="shared" ref="B33:B36" si="1">B32+TIME(0, 1, 0)</f>
-        <v>0.15486111111111112</v>
+        <f t="shared" si="0"/>
+        <v>0.97916666666666707</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>137</v>
@@ -1747,13 +1754,15 @@
       <c r="G33" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H33" s="7"/>
+      <c r="H33" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="I33" s="7"/>
     </row>
     <row r="34" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B34" s="8">
-        <f t="shared" si="1"/>
-        <v>0.15555555555555556</v>
+        <f t="shared" si="0"/>
+        <v>1.0000000000000004</v>
       </c>
       <c r="C34" t="s">
         <v>137</v>
@@ -1770,13 +1779,15 @@
       <c r="G34" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H34" s="7"/>
+      <c r="H34" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B35" s="8">
-        <f t="shared" si="1"/>
-        <v>0.15625</v>
+        <f t="shared" si="0"/>
+        <v>1.0208333333333337</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>3</v>
@@ -1793,13 +1804,15 @@
       <c r="G35" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H35" s="7"/>
+      <c r="H35" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="I35" s="7"/>
     </row>
     <row r="36" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B36" s="8">
-        <f t="shared" si="1"/>
-        <v>0.15694444444444444</v>
+        <f t="shared" si="0"/>
+        <v>1.041666666666667</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>18</v>
@@ -1816,7 +1829,9 @@
       <c r="G36" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H36" s="7"/>
+      <c r="H36" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="I36" s="7"/>
     </row>
   </sheetData>
@@ -1835,7 +1850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
